--- a/src/test/resources/testdata/products.xlsx
+++ b/src/test/resources/testdata/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SauceDemo\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38059AE1-352F-4CE4-A5AF-4EB5B20A52E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B4D879-EF28-4664-AFBC-FFE639844A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{489025B6-10AD-4674-937D-3E16869F5AAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{489025B6-10AD-4674-937D-3E16869F5AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sauce Labs Bike Light</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Sauce Labs Onesie</t>
+  </si>
+  <si>
+    <t>Rib snap infant onesie for the junior automation engineer in development. Reinforced 3-snap bottom closure, two-needle hemmed sleeved and bottom won't unravel.</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>This classic Sauce Labs t-shirt is perfect to wear when cozying up to your keyboard to automate a few tests. Super-soft and comfy ringspun combed cotton.</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>carry.allTheThings() with the sleek, streamlined Sly Pack that melds uncompromising style with unequaled laptop and tablet protection.</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>It's not every day that you come across a midweight quarter-zip fleece jacket capable of handling everything from a relaxing day outdoors to a busy day at the office.</t>
   </si>
 </sst>
 </file>
@@ -397,20 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502EB04B-0225-4901-8A33-DC5F350F71CA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="140.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="140.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -421,7 +445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -432,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -441,6 +465,50 @@
       </c>
       <c r="C3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
